--- a/03_assignment/Assignment3 qu3.3.b step 2.xlsx
+++ b/03_assignment/Assignment3 qu3.3.b step 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carmen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carmen\Desktop\SSO\assignment 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F9AC61-7A18-4244-B581-AC44B81596D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148391A1-D8A4-4ED0-AF54-0D9251EF56FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Price</t>
   </si>
@@ -88,6 +88,9 @@
   <si>
     <t>pi/pi'</t>
   </si>
+  <si>
+    <t>CI width</t>
+  </si>
 </sst>
 </file>
 
@@ -109,15 +112,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,16 +146,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5CB086-AFC6-45CB-BA2D-ABA3BFFB456A}">
   <dimension ref="A1:V924"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,698 +485,739 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="5">
         <v>100</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="5">
         <v>110</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="5">
         <v>120</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="5">
         <v>130</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="5">
         <v>140</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="5">
         <v>150</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="5">
         <v>160</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="5">
         <v>170</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="5">
         <v>180</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="5">
         <v>0.05</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <f xml:space="preserve"> 0.9 - (C$1/300)</f>
         <v>0.56666666666666665</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <f t="shared" ref="D2:K2" si="0" xml:space="preserve"> 0.9 - (D$1/300)</f>
         <v>0.53333333333333344</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <f xml:space="preserve"> 0.9 - (E$1/300)</f>
         <v>0.5</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <f t="shared" si="0"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <f t="shared" si="0"/>
         <v>0.43333333333333335</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="5">
         <f t="shared" si="0"/>
         <v>0.3666666666666667</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="5">
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="5">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="5">
         <f>1-POWER(1-N1, 1/(N2-1))</f>
         <v>6.3911509545450107E-3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="M4" t="s">
+      <c r="M4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <f ca="1">AVERAGE(C25:C124)</f>
-        <v>954</v>
-      </c>
-      <c r="D5">
+        <v>955</v>
+      </c>
+      <c r="D5" s="5">
         <f t="shared" ref="D5:J5" ca="1" si="1">AVERAGE(D25:D124)</f>
-        <v>1037.3</v>
-      </c>
-      <c r="E5">
+        <v>1023</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1101.5999999999999</v>
-      </c>
-      <c r="F5">
+        <v>1084.8</v>
+      </c>
+      <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1119.3</v>
-      </c>
-      <c r="G5">
+        <v>1114.0999999999999</v>
+      </c>
+      <c r="G5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1134</v>
-      </c>
-      <c r="H5">
+        <v>1159.2</v>
+      </c>
+      <c r="H5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1186.5</v>
-      </c>
-      <c r="I5">
+        <v>1174.5</v>
+      </c>
+      <c r="I5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1126.4000000000001</v>
-      </c>
-      <c r="J5">
+        <v>1155.2</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1130.5</v>
-      </c>
-      <c r="K5">
+        <v>1093.0999999999999</v>
+      </c>
+      <c r="K5" s="5">
         <f ca="1">AVERAGE(K25:K124)</f>
-        <v>1060.2</v>
-      </c>
-      <c r="M5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="5">
         <f xml:space="preserve"> _xlfn.T.INV(1-N3, N4-1)</f>
         <v>2.5358292310589921</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <f ca="1">_xlfn.STDEV.S(C25:C124)</f>
-        <v>103.88416237290068</v>
-      </c>
-      <c r="D6">
+        <v>98.857105322416118</v>
+      </c>
+      <c r="D6" s="5">
         <f t="shared" ref="D6:J6" ca="1" si="2">_xlfn.STDEV.S(D25:D124)</f>
-        <v>124.34763099204316</v>
-      </c>
-      <c r="E6">
+        <v>124.58821060687171</v>
+      </c>
+      <c r="E6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>137.91169770413373</v>
-      </c>
-      <c r="F6">
+        <v>153.42869235043241</v>
+      </c>
+      <c r="F6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>215.39840934295395</v>
-      </c>
-      <c r="G6">
+        <v>203.46540668421184</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>252.0942584659856</v>
-      </c>
-      <c r="H6">
+        <v>218.95841586654731</v>
+      </c>
+      <c r="H6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>268.06969921340163</v>
-      </c>
-      <c r="I6">
+        <v>282.08235419014522</v>
+      </c>
+      <c r="I6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>270.91882566741299</v>
-      </c>
-      <c r="J6">
+        <v>321.27423070195238</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>361.93747716109391</v>
-      </c>
-      <c r="K6">
+        <v>347.85546458611833</v>
+      </c>
+      <c r="K6" s="5">
         <f ca="1">_xlfn.STDEV.S(K25:K124)</f>
-        <v>355.32878500699246</v>
+        <v>345.50358503599824</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <f ca="1">C5-1.96 *C6</f>
-        <v>750.3870417491147</v>
-      </c>
-      <c r="D7">
+        <v>761.24007356806442</v>
+      </c>
+      <c r="D7" s="5">
         <f ca="1">D5-1.96 *D6</f>
-        <v>793.57864325559535</v>
-      </c>
-      <c r="E7">
+        <v>778.80710721053151</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" ref="E7:K7" ca="1" si="3">E5-1.96 *E6</f>
-        <v>831.29307249989779</v>
-      </c>
-      <c r="F7">
+        <v>784.07976299315237</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>697.11911768781022</v>
-      </c>
-      <c r="G7">
+        <v>715.30780289894471</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>639.89525340666819</v>
-      </c>
-      <c r="H7">
+        <v>730.04150490156735</v>
+      </c>
+      <c r="H7" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>661.0833895417328</v>
-      </c>
-      <c r="I7">
+        <v>621.6185857873154</v>
+      </c>
+      <c r="I7" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>595.39910169187067</v>
-      </c>
-      <c r="J7">
+        <v>525.50250782417345</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>421.10254476425598</v>
-      </c>
-      <c r="K7">
+        <v>411.30328941120797</v>
+      </c>
+      <c r="K7" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>363.75558138629481</v>
+        <v>375.81297332944348</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <f ca="1">C5+1.96*C6</f>
-        <v>1157.6129582508854</v>
-      </c>
-      <c r="D8">
+        <v>1148.7599264319356</v>
+      </c>
+      <c r="D8" s="5">
         <f t="shared" ref="D8:K8" ca="1" si="4">D5+1.96*D6</f>
-        <v>1281.0213567444046</v>
-      </c>
-      <c r="E8">
+        <v>1267.1928927894685</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1371.906927500102</v>
-      </c>
-      <c r="F8">
+        <v>1385.5202370068475</v>
+      </c>
+      <c r="F8" s="5">
         <f ca="1">F5+1.96*F6</f>
-        <v>1541.4808823121898</v>
-      </c>
-      <c r="G8">
+        <v>1512.892197101055</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1628.1047465933318</v>
-      </c>
-      <c r="H8">
+        <v>1588.3584950984327</v>
+      </c>
+      <c r="H8" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1711.9166104582673</v>
-      </c>
-      <c r="I8">
+        <v>1727.3814142126846</v>
+      </c>
+      <c r="I8" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1657.4008983081294</v>
-      </c>
-      <c r="J8">
+        <v>1784.8974921758268</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1839.897455235744</v>
-      </c>
-      <c r="K8">
+        <v>1774.8967105887918</v>
+      </c>
+      <c r="K8" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1756.6444186137053</v>
+        <v>1730.1870266705564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5">
+        <f ca="1">C8-C7</f>
+        <v>387.51985286387117</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" ref="D9:K9" ca="1" si="5">D8-D7</f>
+        <v>488.38578557893698</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>601.44047401369517</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>797.58439420211027</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>858.31699019686539</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>1105.7628284253692</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>1259.3949843516534</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>1363.5934211775839</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>1354.3740533411128</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>100</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>110</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>120</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>130</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>140</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>150</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <v>160</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <v>170</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="4">
         <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>100</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="8" t="str">
         <f ca="1">IF($C$5&gt;(C$5- $N$5 * SQRT($C$6*$C$6+C$6*C$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" ref="D12:J12" ca="1" si="5">IF($C$5&gt;(D$5- $N$5 * SQRT($C$6*$C$6+D$6*D$6)/SQRT($N$4)), " ", "DISCARD")</f>
+      <c r="D12" s="9" t="str">
+        <f t="shared" ref="D12:J12" ca="1" si="6">IF($C$5&gt;(D$5- $N$5 * SQRT($C$6*$C$6+D$6*D$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v>DISCARD</v>
       </c>
-      <c r="E12" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E12" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>DISCARD</v>
       </c>
-      <c r="F12" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="F12" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>DISCARD</v>
       </c>
-      <c r="G12" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="G12" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>DISCARD</v>
       </c>
-      <c r="H12" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="H12" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>DISCARD</v>
       </c>
-      <c r="I12" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="I12" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>DISCARD</v>
       </c>
-      <c r="J12" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="J12" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>DISCARD</v>
       </c>
-      <c r="K12" s="2" t="str">
+      <c r="K12" s="9" t="str">
         <f ca="1">IF($C$5&gt;(K$5- $N$5 * SQRT($C$6*$C$6+K$6*K$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v>DISCARD</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B13">
+      <c r="B13" s="4">
         <v>110</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="9" t="str">
         <f ca="1">IF($D$5&gt;(C$5- $N$5 * SQRT($D$6*$D$6+C$6*C$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D13" s="2" t="str">
-        <f t="shared" ref="D13:J13" ca="1" si="6">IF($D$5&gt;(D$5- $N$5 * SQRT($D$6*$D$6+D$6*D$6)/SQRT($N$4)), " ", "DISCARD")</f>
+      <c r="D13" s="8" t="str">
+        <f t="shared" ref="D13:J13" ca="1" si="7">IF($D$5&gt;(D$5- $N$5 * SQRT($D$6*$D$6+D$6*D$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E13" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E13" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v>DISCARD</v>
       </c>
-      <c r="F13" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
+      <c r="F13" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v>DISCARD</v>
       </c>
-      <c r="G13" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
+      <c r="G13" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v>DISCARD</v>
       </c>
-      <c r="H13" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
+      <c r="H13" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v>DISCARD</v>
       </c>
-      <c r="I13" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
+      <c r="I13" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v>DISCARD</v>
       </c>
-      <c r="J13" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
+      <c r="J13" s="9" t="str">
+        <f ca="1">IF($D$5&gt;(J$5- $N$5 * SQRT($D$6*$D$6+J$6*J$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K13" s="2" t="str">
+      <c r="K13" s="9" t="str">
         <f ca="1">IF($D$5&gt;(K$5- $N$5 * SQRT($D$6*$D$6+K$6*K$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B14">
+      <c r="B14" s="4">
         <v>120</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="9" t="str">
         <f ca="1">IF($E$5&gt;(C$5- $N$5 * SQRT($E$6*$E$6+C$6*C$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D14" s="2" t="str">
-        <f t="shared" ref="D14:K14" ca="1" si="7">IF($E$5&gt;(D$5- $N$5 * SQRT($E$6*$E$6+D$6*D$6)/SQRT($N$4)), " ", "DISCARD")</f>
+      <c r="D14" s="9" t="str">
+        <f t="shared" ref="D14:K14" ca="1" si="8">IF($E$5&gt;(D$5- $N$5 * SQRT($E$6*$E$6+D$6*D$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E14" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="E14" s="8" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F14" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="F14" s="9" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G14" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H14" s="2" t="str">
+      <c r="G14" s="9" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>DISCARD</v>
+      </c>
+      <c r="H14" s="9" t="str">
         <f ca="1">IF($E$5&gt;(H$5- $N$5 * SQRT($E$6*$E$6+H$6*H$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v>DISCARD</v>
       </c>
-      <c r="I14" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="I14" s="9" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J14" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="J14" s="9" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K14" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="K14" s="9" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B15">
+      <c r="B15" s="4">
         <v>130</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" s="9" t="str">
         <f ca="1">IF($F$5&gt;(C$5- $N$5 * SQRT($F$6*$F$6+C$6*C$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D15" s="2" t="str">
-        <f t="shared" ref="D15:K15" ca="1" si="8">IF($F$5&gt;(D$5- $N$5 * SQRT($F$6*$F$6+D$6*D$6)/SQRT($N$4)), " ", "DISCARD")</f>
+      <c r="D15" s="9" t="str">
+        <f t="shared" ref="D15:K15" ca="1" si="9">IF($F$5&gt;(D$5- $N$5 * SQRT($F$6*$F$6+D$6*D$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E15" s="2" t="str">
-        <f t="shared" ca="1" si="8"/>
+      <c r="E15" s="9" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F15" s="2" t="str">
-        <f t="shared" ca="1" si="8"/>
+      <c r="F15" s="8" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G15" s="2" t="str">
-        <f t="shared" ca="1" si="8"/>
+      <c r="G15" s="9" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H15" s="2" t="str">
-        <f t="shared" ca="1" si="8"/>
+      <c r="H15" s="9" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I15" s="2" t="str">
-        <f t="shared" ca="1" si="8"/>
+      <c r="I15" s="9" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J15" s="2" t="str">
-        <f t="shared" ca="1" si="8"/>
+      <c r="J15" s="9" t="str">
+        <f ca="1">IF($F$5&gt;(J$5- $N$5 * SQRT($F$6*$F$6+J$6*J$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K15" s="2" t="str">
-        <f t="shared" ca="1" si="8"/>
+      <c r="K15" s="9" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B16">
+      <c r="B16" s="4">
         <v>140</v>
       </c>
-      <c r="C16" s="2" t="str">
+      <c r="C16" s="9" t="str">
         <f ca="1">IF($G$5&gt;(C$5- $N$5 * SQRT($G$6*$G$6+C$6*C$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" ref="D16:J16" ca="1" si="9">IF($G$5&gt;(D$5- $N$5 * SQRT($G$6*$G$6+D$6*D$6)/SQRT($N$4)), " ", "DISCARD")</f>
+      <c r="D16" s="9" t="str">
+        <f t="shared" ref="D16:J16" ca="1" si="10">IF($G$5&gt;(D$5- $N$5 * SQRT($G$6*$G$6+D$6*D$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E16" s="2" t="str">
-        <f t="shared" ca="1" si="9"/>
+      <c r="E16" s="9" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F16" s="2" t="str">
-        <f t="shared" ca="1" si="9"/>
+      <c r="F16" s="9" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G16" s="2" t="str">
-        <f t="shared" ca="1" si="9"/>
+      <c r="G16" s="8" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H16" s="2" t="str">
-        <f t="shared" ca="1" si="9"/>
+      <c r="H16" s="9" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I16" s="2" t="str">
-        <f t="shared" ca="1" si="9"/>
+      <c r="I16" s="9" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J16" s="2" t="str">
-        <f t="shared" ca="1" si="9"/>
+      <c r="J16" s="9" t="str">
+        <f ca="1">IF($G$5&gt;(J$5- $N$5 * SQRT($G$6*$G$6+J$6*J$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K16" s="2" t="str">
+      <c r="K16" s="9" t="str">
         <f ca="1">IF($G$5&gt;(K$5- $N$5 * SQRT($G$6*$G$6+K$6*K$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B17">
+      <c r="B17" s="4">
         <v>150</v>
       </c>
-      <c r="C17" s="2" t="str">
+      <c r="C17" s="9" t="str">
         <f ca="1">IF($H$5&gt;(C$5- $N$5 * SQRT($H$6*$H$6+C$6*C$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D17" s="9" t="str">
         <f ca="1">IF($H$5&gt;(D$5- $N$5 * SQRT($H$6*$H$6+D$6*D$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E17" s="2" t="str">
-        <f t="shared" ref="E17:K17" ca="1" si="10">IF($H$5&gt;(E$5- $N$5 * SQRT($H$6*$H$6+E$6*E$6)/SQRT($N$4)), " ", "DISCARD")</f>
+      <c r="E17" s="9" t="str">
+        <f t="shared" ref="E17:K17" ca="1" si="11">IF($H$5&gt;(E$5- $N$5 * SQRT($H$6*$H$6+E$6*E$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F17" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
+      <c r="F17" s="9" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G17" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
+      <c r="G17" s="9" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H17" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
+      <c r="H17" s="8" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I17" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
+      <c r="I17" s="9" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J17" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
+      <c r="J17" s="9" t="str">
+        <f ca="1">IF($H$5&gt;(J$5- $N$5 * SQRT($H$6*$H$6+J$6*J$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K17" s="2" t="str">
-        <f t="shared" ca="1" si="10"/>
+      <c r="K17" s="9" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B18">
+      <c r="B18" s="4">
         <v>160</v>
       </c>
-      <c r="C18" s="2" t="str">
+      <c r="C18" s="9" t="str">
         <f ca="1">IF($I$5&gt;(C$5- $N$5 * SQRT($I$6*$I$6+C$6*C$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="D18" s="9" t="str">
         <f ca="1">IF($I$5&gt;(D$5- $N$5 * SQRT($I$6*$I$6+D$6*D$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E18" s="2" t="str">
-        <f t="shared" ref="E18:K18" ca="1" si="11">IF($I$5&gt;(E$5- $N$5 * SQRT($I$6*$I$6+E$6*E$6)/SQRT($N$4)), " ", "DISCARD")</f>
+      <c r="E18" s="9" t="str">
+        <f t="shared" ref="E18:K18" ca="1" si="12">IF($I$5&gt;(E$5- $N$5 * SQRT($I$6*$I$6+E$6*E$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F18" s="2" t="str">
-        <f t="shared" ca="1" si="11"/>
+      <c r="F18" s="9" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G18" s="2" t="str">
-        <f t="shared" ca="1" si="11"/>
+      <c r="G18" s="9" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H18" s="2" t="str">
-        <f t="shared" ca="1" si="11"/>
+      <c r="H18" s="9" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I18" s="2" t="str">
-        <f t="shared" ca="1" si="11"/>
+      <c r="I18" s="8" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J18" s="2" t="str">
-        <f t="shared" ca="1" si="11"/>
+      <c r="J18" s="9" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K18" s="2" t="str">
-        <f t="shared" ca="1" si="11"/>
+      <c r="K18" s="9" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B19">
+      <c r="B19" s="4">
         <v>170</v>
       </c>
-      <c r="C19" s="2" t="str">
+      <c r="C19" s="9" t="str">
         <f ca="1">IF($J$5&gt;(C$5- $N$5 * SQRT($J$6*$J$6+C$6*C$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="D19" s="9" t="str">
         <f ca="1">IF($J$5&gt;(D$5- $N$5 * SQRT($J$6*$J$6+D$6*D$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E19" s="2" t="str">
-        <f t="shared" ref="E19:K19" ca="1" si="12">IF($J$5&gt;(E$5- $N$5 * SQRT($J$6*$J$6+E$6*E$6)/SQRT($N$4)), " ", "DISCARD")</f>
+      <c r="E19" s="9" t="str">
+        <f t="shared" ref="E19:K19" ca="1" si="13">IF($J$5&gt;(E$5- $N$5 * SQRT($J$6*$J$6+E$6*E$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F19" s="2" t="str">
-        <f t="shared" ca="1" si="12"/>
+      <c r="F19" s="9" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G19" s="2" t="str">
-        <f t="shared" ca="1" si="12"/>
+      <c r="G19" s="9" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H19" s="2" t="str">
-        <f t="shared" ca="1" si="12"/>
+      <c r="H19" s="9" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I19" s="2" t="str">
-        <f t="shared" ca="1" si="12"/>
+      <c r="I19" s="9" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J19" s="2" t="str">
+      <c r="J19" s="8" t="str">
         <f ca="1">IF($J$5&gt;(J$5- $N$5 * SQRT($J$6*$J$6+J$6*J$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K19" s="2" t="str">
-        <f t="shared" ca="1" si="12"/>
+      <c r="K19" s="9" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B20">
+      <c r="B20" s="4">
         <v>180</v>
       </c>
-      <c r="C20" s="2" t="str">
+      <c r="C20" s="9" t="str">
         <f ca="1">IF($K$5&gt;(C$5- $N$5 * SQRT($K$6*$K$6+C$6*C$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="D20" s="9" t="str">
         <f ca="1">IF($K$5&gt;(D$5- $N$5 * SQRT($K$6*$K$6+D$6*D$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E20" s="2" t="str">
-        <f t="shared" ref="E20:K20" ca="1" si="13">IF($K$5&gt;(E$5- $N$5 * SQRT($K$6*$K$6+E$6*E$6)/SQRT($N$4)), " ", "DISCARD")</f>
+      <c r="E20" s="9" t="str">
+        <f t="shared" ref="E20:K20" ca="1" si="14">IF($K$5&gt;(E$5- $N$5 * SQRT($K$6*$K$6+E$6*E$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F20" s="2" t="str">
-        <f t="shared" ca="1" si="13"/>
+      <c r="F20" s="9" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G20" s="2" t="str">
-        <f t="shared" ca="1" si="13"/>
+      <c r="G20" s="9" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>DISCARD</v>
+      </c>
+      <c r="H20" s="9" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>DISCARD</v>
+      </c>
+      <c r="I20" s="9" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H20" s="2" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>DISCARD</v>
-      </c>
-      <c r="I20" s="2" t="str">
-        <f t="shared" ca="1" si="13"/>
+      <c r="J20" s="9" t="str">
+        <f ca="1">IF($K$5&gt;(J$5- $N$5 * SQRT($K$6*$K$6+J$6*J$6)/SQRT($N$4)), " ", "DISCARD")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J20" s="2" t="str">
-        <f t="shared" ca="1" si="13"/>
+      <c r="K20" s="8" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K20" s="2" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v xml:space="preserve"> </v>
-      </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B25">
@@ -1131,36 +1228,36 @@
         <v>1000</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:K40" ca="1" si="14">MIN(10, _xlfn.BINOM.INV($B$3, D$2, RAND())) * D$1</f>
+        <f t="shared" ref="D25:K40" ca="1" si="15">MIN(10, _xlfn.BINOM.INV($B$3, D$2, RAND())) * D$1</f>
         <v>1100</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>720</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1200</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>910</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1120</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>750</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>800</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1120</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>680</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>850</v>
       </c>
       <c r="K25" s="1">
         <f ca="1">MIN(10, _xlfn.BINOM.INV($B$3, K$2, RAND())) * K$1</f>
-        <v>1260</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
@@ -1168,40 +1265,40 @@
         <v>2</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" ref="C26:K67" ca="1" si="15">MIN(10, _xlfn.BINOM.INV($B$3, C$2, RAND())) * C$1</f>
+        <f t="shared" ref="C26:K67" ca="1" si="16">MIN(10, _xlfn.BINOM.INV($B$3, C$2, RAND())) * C$1</f>
         <v>1000</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>770</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1100</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1200</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>780</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1040</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>560</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>980</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1500</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1440</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1190</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1020</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1260</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -1218,40 +1315,40 @@
         <v>3</v>
       </c>
       <c r="C27" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1000</v>
+      </c>
+      <c r="D27" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" ca="1" si="14"/>
         <v>1100</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
+        <v>960</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>1040</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>1120</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" ca="1" si="15"/>
         <v>1200</v>
       </c>
-      <c r="F27" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1300</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1120</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1350</v>
-      </c>
       <c r="I27" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1440</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1190</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>850</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1080</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -1268,39 +1365,39 @@
         <v>4</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>900</v>
+      </c>
+      <c r="D28" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1100</v>
+        <v>880</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>840</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1200</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1040</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1400</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1050</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1120</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>850</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1260</v>
       </c>
       <c r="N28" s="2"/>
@@ -1318,39 +1415,39 @@
         <v>5</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1000</v>
+      </c>
+      <c r="D29" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>900</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" ca="1" si="14"/>
         <v>1100</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1200</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1170</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1300</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1400</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1500</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1120</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1360</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1190</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1260</v>
       </c>
       <c r="N29" s="2"/>
@@ -1368,40 +1465,40 @@
         <v>6</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1000</v>
+      </c>
+      <c r="D30" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" ca="1" si="14"/>
         <v>1100</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
+        <v>960</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>1300</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>700</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>1200</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>1280</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>1700</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" ca="1" si="15"/>
         <v>1080</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1300</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>980</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1350</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1600</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>850</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>900</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -1418,40 +1515,40 @@
         <v>7</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1000</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>660</v>
+        <v>1100</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1080</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1040</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>910</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
+        <v>1400</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>1500</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>800</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>1530</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" ca="1" si="15"/>
         <v>1260</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1350</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1280</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>680</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>900</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -1468,40 +1565,40 @@
         <v>8</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>600</v>
+      </c>
+      <c r="D32" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" ca="1" si="14"/>
         <v>1100</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>960</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>910</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1400</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1260</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1500</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1600</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>800</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1700</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1360</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>720</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>540</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -1518,40 +1615,40 @@
         <v>9</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1000</v>
+      </c>
+      <c r="D33" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>900</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" ca="1" si="14"/>
         <v>1100</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
+        <v>960</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>910</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>1120</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" ca="1" si="15"/>
         <v>1200</v>
       </c>
-      <c r="F33" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1170</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>840</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1200</v>
-      </c>
       <c r="I33" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1280</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1120</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>510</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>680</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>180</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -1568,39 +1665,39 @@
         <v>10</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1000</v>
+      </c>
+      <c r="D34" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1100</v>
+        <v>880</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1200</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1040</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1170</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>840</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>700</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1200</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1280</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1120</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1700</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1190</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1440</v>
       </c>
       <c r="N34" s="2"/>
@@ -1618,40 +1715,40 @@
         <v>11</v>
       </c>
       <c r="C35" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>900</v>
+      </c>
+      <c r="D35" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>990</v>
+        <v>770</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1200</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>910</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1170</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1400</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>840</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1050</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>600</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>800</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>960</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1020</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1800</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1080</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.35">
@@ -1659,40 +1756,40 @@
         <v>12</v>
       </c>
       <c r="C36" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1000</v>
+      </c>
+      <c r="D36" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" ca="1" si="14"/>
         <v>1100</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>720</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>910</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
+        <v>1120</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>800</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>1360</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" ca="1" si="15"/>
         <v>1260</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>450</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>960</v>
-      </c>
-      <c r="J36" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1530</v>
-      </c>
-      <c r="K36" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>540</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.35">
@@ -1700,40 +1797,40 @@
         <v>13</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1000</v>
+      </c>
+      <c r="D37" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>700</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>660</v>
+        <v>990</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1200</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1170</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1300</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>700</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1400</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1350</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>640</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>800</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1020</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>850</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1440</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1260</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.35">
@@ -1741,40 +1838,40 @@
         <v>14</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1000</v>
+      </c>
+      <c r="D38" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>400</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" ca="1" si="14"/>
         <v>1100</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1200</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1170</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>980</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1400</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1500</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>640</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1600</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1360</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>680</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1620</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.35">
@@ -1782,40 +1879,40 @@
         <v>15</v>
       </c>
       <c r="C39" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1000</v>
+      </c>
+      <c r="D39" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" ca="1" si="14"/>
         <v>1100</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1200</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>910</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1400</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>980</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1050</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1280</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1600</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1360</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1080</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.35">
@@ -1823,39 +1920,39 @@
         <v>16</v>
       </c>
       <c r="C40" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>900</v>
+      </c>
+      <c r="D40" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" ca="1" si="14"/>
         <v>1100</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>960</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1300</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1400</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>1350</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>600</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1280</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1360</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>900</v>
       </c>
     </row>
@@ -1864,40 +1961,40 @@
         <v>17</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1000</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1100</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1200</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1300</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1400</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1350</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1440</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1190</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1020</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1620</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.35">
@@ -1905,40 +2002,40 @@
         <v>18</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1000</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1100</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>960</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>780</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1300</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>980</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1260</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1500</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1600</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>960</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>340</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1020</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>720</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1080</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.35">
@@ -1946,40 +2043,40 @@
         <v>19</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>600</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1000</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>990</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>840</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1200</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1170</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>390</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1120</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1350</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>900</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1280</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1600</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1190</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1620</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1800</v>
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.35">
@@ -1987,40 +2084,40 @@
         <v>20</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1000</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1100</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>720</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1170</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1300</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>980</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>900</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>800</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1600</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1700</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>510</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>900</v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.35">
@@ -2028,40 +2125,40 @@
         <v>21</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1000</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1100</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>960</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1040</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1300</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1400</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1260</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1350</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1280</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>960</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1190</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1020</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1440</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>720</v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.35">
@@ -2069,40 +2166,40 @@
         <v>22</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>700</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>900</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>880</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1200</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1040</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1300</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1120</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1350</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1120</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>640</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>680</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>540</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>720</v>
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.35">
@@ -2110,40 +2207,40 @@
         <v>23</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1000</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>660</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1080</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>910</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>560</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>700</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1500</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>960</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1190</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>680</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1620</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1080</v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.35">
@@ -2151,40 +2248,40 @@
         <v>24</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>900</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>770</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>960</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>780</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>980</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1400</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>600</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1200</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1120</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>800</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1700</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1020</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>720</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>900</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.35">
@@ -2192,40 +2289,40 @@
         <v>25</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1000</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>880</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1100</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
+        <v>960</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1040</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1260</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" ca="1" si="16"/>
         <v>1200</v>
       </c>
-      <c r="F49" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1300</v>
-      </c>
-      <c r="G49" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>700</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1200</v>
-      </c>
       <c r="I49" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1280</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1020</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.35">
@@ -2233,40 +2330,40 @@
         <v>26</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1000</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1100</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1200</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1300</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>980</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1050</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1500</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>800</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1600</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>680</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>510</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1260</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.35">
@@ -2274,40 +2371,40 @@
         <v>27</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1000</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1100</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1080</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1300</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1400</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1120</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1500</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1600</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>680</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>850</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1440</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.35">
@@ -2315,39 +2412,39 @@
         <v>28</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1000</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1100</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>840</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1040</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1170</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1120</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>980</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>900</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1600</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>680</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>850</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1260</v>
       </c>
     </row>
@@ -2356,40 +2453,40 @@
         <v>29</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>900</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1100</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1080</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1040</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1300</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1400</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>700</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1350</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1120</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1020</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>900</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.35">
@@ -2397,40 +2494,40 @@
         <v>30</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>600</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1100</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
+        <v>840</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1300</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1400</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1350</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1440</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1020</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" ca="1" si="16"/>
         <v>1080</v>
-      </c>
-      <c r="F54" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1040</v>
-      </c>
-      <c r="G54" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1400</v>
-      </c>
-      <c r="H54" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1050</v>
-      </c>
-      <c r="I54" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1440</v>
-      </c>
-      <c r="J54" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1700</v>
-      </c>
-      <c r="K54" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>720</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.35">
@@ -2438,40 +2535,40 @@
         <v>31</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>900</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>990</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>840</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1200</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>780</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1040</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>560</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1120</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1200</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1120</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1440</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1020</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>540</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1260</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.35">
@@ -2479,40 +2576,40 @@
         <v>32</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1000</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>990</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1200</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1300</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1400</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>750</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1350</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1440</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1190</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1360</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>540</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.35">
@@ -2520,40 +2617,40 @@
         <v>33</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1000</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1100</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
+        <v>1200</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1300</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>980</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1050</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" ca="1" si="16"/>
         <v>960</v>
       </c>
-      <c r="F57" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1040</v>
-      </c>
-      <c r="G57" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>980</v>
-      </c>
-      <c r="H57" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>900</v>
-      </c>
-      <c r="I57" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1440</v>
-      </c>
       <c r="J57" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1360</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>720</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.35">
@@ -2561,40 +2658,40 @@
         <v>34</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1000</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>990</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>840</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>390</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1170</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>840</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1050</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>900</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1600</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>960</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1700</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1190</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1620</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1260</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.35">
@@ -2602,40 +2699,40 @@
         <v>35</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
+        <v>1000</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1100</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1080</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>780</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1260</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1200</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" ca="1" si="16"/>
         <v>800</v>
       </c>
-      <c r="D59" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1100</v>
-      </c>
-      <c r="E59" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>840</v>
-      </c>
-      <c r="F59" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1300</v>
-      </c>
-      <c r="G59" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1400</v>
-      </c>
-      <c r="H59" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1350</v>
-      </c>
-      <c r="I59" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1600</v>
-      </c>
       <c r="J59" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>680</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1700</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>720</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1440</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.35">
@@ -2643,39 +2740,39 @@
         <v>36</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1000</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1100</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1200</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1040</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>780</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
+        <v>980</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>600</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" ca="1" si="16"/>
         <v>1120</v>
       </c>
-      <c r="H60" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1050</v>
-      </c>
-      <c r="I60" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1120</v>
-      </c>
       <c r="J60" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1020</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1260</v>
       </c>
     </row>
@@ -2684,40 +2781,40 @@
         <v>37</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1000</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>880</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1200</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1040</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1300</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1120</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1260</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>750</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>900</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1280</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>800</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1700</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>900</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.35">
@@ -2725,40 +2822,40 @@
         <v>38</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1000</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1100</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>720</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>780</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1300</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>700</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>750</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1120</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1700</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1360</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1440</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>720</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.35">
@@ -2766,40 +2863,40 @@
         <v>39</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1000</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>880</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>840</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>910</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1300</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1400</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1260</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1350</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>640</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1020</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1530</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>540</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.35">
@@ -2807,40 +2904,40 @@
         <v>40</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1000</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1100</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
+        <v>1080</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1170</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1260</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1500</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" ca="1" si="16"/>
         <v>960</v>
       </c>
-      <c r="F64" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1300</v>
-      </c>
-      <c r="G64" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1400</v>
-      </c>
-      <c r="H64" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1050</v>
-      </c>
-      <c r="I64" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1280</v>
-      </c>
       <c r="J64" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1700</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1360</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>540</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1080</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.35">
@@ -2848,40 +2945,40 @@
         <v>41</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1000</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1100</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1200</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>780</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1300</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>840</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>980</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1500</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1280</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>480</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1190</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1360</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1440</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.35">
@@ -2889,40 +2986,40 @@
         <v>42</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>900</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>990</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
+        <v>1200</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1170</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1400</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1500</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1440</v>
+      </c>
+      <c r="J66" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>170</v>
+      </c>
+      <c r="K66" s="1">
+        <f t="shared" ca="1" si="16"/>
         <v>1080</v>
-      </c>
-      <c r="F66" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1300</v>
-      </c>
-      <c r="G66" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>980</v>
-      </c>
-      <c r="H66" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>900</v>
-      </c>
-      <c r="I66" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1120</v>
-      </c>
-      <c r="J66" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1530</v>
-      </c>
-      <c r="K66" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1620</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.35">
@@ -2930,40 +3027,40 @@
         <v>43</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>900</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>990</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1080</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>650</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>910</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1260</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1050</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" ref="D67:K99" ca="1" si="16">MIN(10, _xlfn.BINOM.INV($B$3, I$2, RAND())) * I$1</f>
-        <v>1280</v>
+        <f t="shared" ref="D67:K99" ca="1" si="17">MIN(10, _xlfn.BINOM.INV($B$3, I$2, RAND())) * I$1</f>
+        <v>960</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1020</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1700</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>540</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>900</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.35">
@@ -2971,40 +3068,40 @@
         <v>44</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" ref="C68:C124" ca="1" si="17">MIN(10, _xlfn.BINOM.INV($B$3, C$2, RAND())) * C$1</f>
+        <f t="shared" ref="C68:C124" ca="1" si="18">MIN(10, _xlfn.BINOM.INV($B$3, C$2, RAND())) * C$1</f>
         <v>1000</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>770</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1200</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1170</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>980</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>840</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
+        <v>1050</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>960</v>
+      </c>
+      <c r="J68" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>1020</v>
+      </c>
+      <c r="K68" s="1">
+        <f t="shared" ca="1" si="17"/>
         <v>900</v>
-      </c>
-      <c r="I68" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>960</v>
-      </c>
-      <c r="J68" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1190</v>
-      </c>
-      <c r="K68" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>720</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.35">
@@ -3012,40 +3109,40 @@
         <v>45</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>1000</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1100</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1200</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1300</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1120</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1400</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1500</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>800</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1280</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1360</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1260</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.35">
@@ -3053,40 +3150,40 @@
         <v>46</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1100</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1080</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1170</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>980</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1400</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1350</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1050</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1280</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1120</v>
       </c>
       <c r="J70" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1530</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1360</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>720</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.35">
@@ -3094,40 +3191,40 @@
         <v>47</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>800</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>990</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1100</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1200</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1300</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>700</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1400</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1050</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1500</v>
       </c>
       <c r="I71" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>640</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1440</v>
       </c>
       <c r="J71" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>850</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1440</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.35">
@@ -3135,40 +3232,40 @@
         <v>48</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>800</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>700</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1100</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1200</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1300</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>980</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1400</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1350</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1500</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>800</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1280</v>
       </c>
       <c r="J72" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1700</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>340</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>720</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.35">
@@ -3176,39 +3273,39 @@
         <v>49</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>880</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1100</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1080</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1170</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1040</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1400</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1050</v>
       </c>
       <c r="I73" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1120</v>
       </c>
       <c r="J73" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>510</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1020</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>900</v>
       </c>
     </row>
@@ -3217,40 +3314,40 @@
         <v>50</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>990</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1200</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>910</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1300</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
+        <v>1400</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>1500</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>800</v>
+      </c>
+      <c r="J74" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>1530</v>
+      </c>
+      <c r="K74" s="1">
+        <f t="shared" ca="1" si="17"/>
         <v>1260</v>
-      </c>
-      <c r="H74" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1500</v>
-      </c>
-      <c r="I74" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>800</v>
-      </c>
-      <c r="J74" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1700</v>
-      </c>
-      <c r="K74" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1080</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.35">
@@ -3258,40 +3355,40 @@
         <v>51</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1100</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1200</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1040</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1400</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1260</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1500</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1120</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1600</v>
       </c>
       <c r="J75" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1020</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1700</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>360</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>900</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.35">
@@ -3299,40 +3396,40 @@
         <v>52</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>880</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1100</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1200</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>910</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>780</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1120</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1350</v>
       </c>
       <c r="I76" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1280</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>640</v>
       </c>
       <c r="J76" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1530</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1020</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1440</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>720</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.35">
@@ -3340,40 +3437,40 @@
         <v>53</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1100</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>840</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1040</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1400</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1120</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>750</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1200</v>
       </c>
       <c r="I77" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1280</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>960</v>
       </c>
       <c r="J77" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1190</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1620</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.35">
@@ -3381,40 +3478,40 @@
         <v>54</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>990</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1200</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1300</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1400</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1260</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>750</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1280</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1600</v>
       </c>
       <c r="J78" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1360</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1190</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1440</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>720</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.35">
@@ -3422,40 +3519,40 @@
         <v>55</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>700</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>990</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1200</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1170</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1300</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1120</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>980</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1350</v>
       </c>
       <c r="I79" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1280</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1440</v>
       </c>
       <c r="J79" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1700</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1190</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1440</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>900</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.35">
@@ -3463,40 +3560,40 @@
         <v>56</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>990</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1200</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>650</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>910</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1120</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1400</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1500</v>
       </c>
       <c r="I80" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1280</v>
       </c>
       <c r="J80" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1020</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1800</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>540</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.35">
@@ -3504,40 +3601,40 @@
         <v>57</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1100</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1200</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1040</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1300</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>980</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1350</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>900</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1280</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>800</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1020</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>720</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>900</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.35">
@@ -3545,40 +3642,40 @@
         <v>58</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>800</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>1000</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>770</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>660</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>720</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1170</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1040</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>700</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1400</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1500</v>
       </c>
       <c r="I82" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1440</v>
       </c>
       <c r="J82" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1190</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>720</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.35">
@@ -3586,40 +3683,40 @@
         <v>59</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>660</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1200</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>910</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1170</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>980</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>750</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1050</v>
       </c>
       <c r="I83" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1280</v>
       </c>
       <c r="J83" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1190</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1440</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.35">
@@ -3627,40 +3724,40 @@
         <v>60</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>800</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>1000</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1100</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1200</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1300</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1400</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1200</v>
       </c>
       <c r="I84" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
+        <v>960</v>
+      </c>
+      <c r="J84" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>1190</v>
+      </c>
+      <c r="K84" s="1">
+        <f t="shared" ca="1" si="17"/>
         <v>1440</v>
-      </c>
-      <c r="J84" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1190</v>
-      </c>
-      <c r="K84" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1620</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.35">
@@ -3668,40 +3765,40 @@
         <v>61</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>880</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>660</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1080</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1300</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1120</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>750</v>
       </c>
       <c r="I85" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>800</v>
       </c>
       <c r="J85" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1700</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>680</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>720</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.35">
@@ -3709,40 +3806,40 @@
         <v>62</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1100</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1080</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1300</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1400</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1050</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1200</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1120</v>
       </c>
       <c r="J86" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1700</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1020</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1080</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.35">
@@ -3750,40 +3847,40 @@
         <v>63</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>880</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1200</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>780</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1300</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1400</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1120</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1050</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1600</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1190</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1440</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.35">
@@ -3791,40 +3888,40 @@
         <v>64</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>990</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1200</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1300</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>560</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>980</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1050</v>
       </c>
       <c r="I88" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1280</v>
       </c>
       <c r="J88" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1530</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1800</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1620</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.35">
@@ -3832,40 +3929,40 @@
         <v>65</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>900</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>880</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>840</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>720</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1040</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1300</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1400</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>980</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1350</v>
       </c>
       <c r="I89" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1280</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1120</v>
       </c>
       <c r="J89" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1530</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>680</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>540</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1080</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.35">
@@ -3873,39 +3970,39 @@
         <v>66</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>990</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1100</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1200</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1300</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1400</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>900</v>
       </c>
       <c r="I90" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>640</v>
       </c>
       <c r="J90" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1020</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1530</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1080</v>
       </c>
     </row>
@@ -3914,39 +4011,39 @@
         <v>67</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>1000</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>880</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>840</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>780</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>980</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1120</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1350</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1200</v>
       </c>
       <c r="I91" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1440</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1120</v>
       </c>
       <c r="J91" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>340</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1080</v>
       </c>
     </row>
@@ -3955,40 +4052,40 @@
         <v>68</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>700</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>880</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1100</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
+        <v>1200</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>780</v>
+      </c>
+      <c r="G92" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>1120</v>
+      </c>
+      <c r="H92" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>600</v>
+      </c>
+      <c r="I92" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>1600</v>
+      </c>
+      <c r="J92" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>510</v>
+      </c>
+      <c r="K92" s="1">
+        <f t="shared" ca="1" si="17"/>
         <v>1080</v>
-      </c>
-      <c r="F92" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1300</v>
-      </c>
-      <c r="G92" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>840</v>
-      </c>
-      <c r="H92" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>900</v>
-      </c>
-      <c r="I92" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1120</v>
-      </c>
-      <c r="J92" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1020</v>
-      </c>
-      <c r="K92" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>900</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.35">
@@ -3996,40 +4093,40 @@
         <v>69</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>770</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1100</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>720</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>780</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>910</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1400</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1120</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1350</v>
       </c>
       <c r="I93" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1280</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>960</v>
       </c>
       <c r="J93" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1360</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>540</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1260</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.35">
@@ -4037,40 +4134,40 @@
         <v>70</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>800</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>880</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1100</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>840</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1200</v>
       </c>
       <c r="F94" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1040</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>910</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>560</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>980</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>750</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>450</v>
       </c>
       <c r="I94" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1280</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1600</v>
       </c>
       <c r="J94" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1360</v>
       </c>
       <c r="K94" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1440</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>540</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.35">
@@ -4078,40 +4175,40 @@
         <v>71</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>990</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1200</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1040</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>910</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>980</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1200</v>
       </c>
       <c r="I95" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1280</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1600</v>
       </c>
       <c r="J95" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1360</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1620</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.35">
@@ -4119,40 +4216,40 @@
         <v>72</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>800</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>990</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1100</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>840</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>780</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1300</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>980</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1260</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1050</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>450</v>
       </c>
       <c r="I96" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>480</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1120</v>
       </c>
       <c r="J96" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1530</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1020</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>540</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>900</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.35">
@@ -4160,40 +4257,40 @@
         <v>73</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>900</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>990</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1200</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>780</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>840</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1120</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>900</v>
       </c>
       <c r="I97" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
+        <v>960</v>
+      </c>
+      <c r="J97" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>1700</v>
+      </c>
+      <c r="K97" s="1">
+        <f t="shared" ca="1" si="17"/>
         <v>1440</v>
-      </c>
-      <c r="J97" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1700</v>
-      </c>
-      <c r="K97" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1620</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.35">
@@ -4201,40 +4298,40 @@
         <v>74</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>900</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>770</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1100</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1200</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1040</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>980</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1050</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1350</v>
       </c>
       <c r="I98" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>800</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1120</v>
       </c>
       <c r="J98" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1190</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1080</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.35">
@@ -4242,40 +4339,40 @@
         <v>75</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>800</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>990</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1100</v>
       </c>
       <c r="E99" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>840</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1170</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>910</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1400</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>840</v>
       </c>
       <c r="H99" s="1">
-        <f t="shared" ref="D99:K124" ca="1" si="18">MIN(10, _xlfn.BINOM.INV($B$3, H$2, RAND())) * H$1</f>
+        <f t="shared" ref="D99:K124" ca="1" si="19">MIN(10, _xlfn.BINOM.INV($B$3, H$2, RAND())) * H$1</f>
         <v>900</v>
       </c>
       <c r="I99" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1280</v>
       </c>
       <c r="J99" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1190</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>540</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1080</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.35">
@@ -4283,39 +4380,39 @@
         <v>76</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>1000</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1100</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1200</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>650</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1300</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1120</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1400</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>750</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1500</v>
       </c>
       <c r="I100" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>800</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>640</v>
       </c>
       <c r="J100" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1360</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>900</v>
       </c>
     </row>
@@ -4324,39 +4421,39 @@
         <v>77</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>800</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>500</v>
       </c>
       <c r="D101" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1100</v>
       </c>
       <c r="E101" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>960</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1300</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1260</v>
       </c>
       <c r="H101" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1350</v>
       </c>
       <c r="I101" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1280</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>960</v>
       </c>
       <c r="J101" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1020</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1260</v>
       </c>
     </row>
@@ -4365,40 +4462,40 @@
         <v>78</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D102" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>770</v>
       </c>
       <c r="E102" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1200</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1040</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1120</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1400</v>
       </c>
       <c r="H102" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1350</v>
       </c>
       <c r="I102" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1120</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>640</v>
       </c>
       <c r="J102" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1530</v>
       </c>
       <c r="K102" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1620</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.35">
@@ -4406,40 +4503,40 @@
         <v>79</v>
       </c>
       <c r="C103" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>700</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>800</v>
       </c>
       <c r="D103" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1100</v>
       </c>
       <c r="E103" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1080</v>
       </c>
       <c r="F103" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>910</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1170</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1400</v>
       </c>
       <c r="H103" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1350</v>
       </c>
       <c r="I103" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>640</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1280</v>
       </c>
       <c r="J103" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1190</v>
       </c>
       <c r="K103" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>900</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.35">
@@ -4447,40 +4544,40 @@
         <v>80</v>
       </c>
       <c r="C104" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>800</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>1000</v>
       </c>
       <c r="D104" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1100</v>
       </c>
       <c r="E104" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>840</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1200</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1170</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>910</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1400</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1120</v>
       </c>
       <c r="H104" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1200</v>
       </c>
       <c r="I104" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>800</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1120</v>
       </c>
       <c r="J104" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1020</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1190</v>
       </c>
       <c r="K104" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1620</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1260</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.35">
@@ -4488,40 +4585,40 @@
         <v>81</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>660</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1100</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1200</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>650</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1300</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>420</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1050</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1200</v>
       </c>
       <c r="I105" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1120</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>800</v>
       </c>
       <c r="J105" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1190</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1020</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>540</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>360</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.35">
@@ -4529,40 +4626,40 @@
         <v>82</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>700</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>1000</v>
       </c>
       <c r="D106" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>990</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1100</v>
       </c>
       <c r="E106" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1200</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>910</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1170</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>980</v>
       </c>
       <c r="H106" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1500</v>
       </c>
       <c r="I106" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1600</v>
       </c>
       <c r="J106" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1700</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1020</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>900</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.35">
@@ -4570,40 +4667,40 @@
         <v>83</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D107" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1100</v>
       </c>
       <c r="E107" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1200</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1170</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1400</v>
       </c>
       <c r="H107" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1050</v>
       </c>
       <c r="I107" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1120</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1600</v>
       </c>
       <c r="J107" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1700</v>
       </c>
       <c r="K107" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>540</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.35">
@@ -4611,40 +4708,40 @@
         <v>84</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>800</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>1000</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1100</v>
       </c>
       <c r="E108" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1200</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>780</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1170</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1400</v>
       </c>
       <c r="H108" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>750</v>
       </c>
       <c r="I108" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1120</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1280</v>
       </c>
       <c r="J108" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>680</v>
       </c>
       <c r="K108" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>540</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>720</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.35">
@@ -4652,40 +4749,40 @@
         <v>85</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="D109" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1100</v>
-      </c>
-      <c r="E109" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1200</v>
-      </c>
-      <c r="F109" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1040</v>
-      </c>
-      <c r="G109" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1260</v>
-      </c>
-      <c r="H109" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1350</v>
-      </c>
-      <c r="I109" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1280</v>
-      </c>
-      <c r="J109" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1360</v>
-      </c>
-      <c r="K109" s="1">
         <f t="shared" ca="1" si="18"/>
         <v>900</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>1100</v>
+      </c>
+      <c r="E109" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>1200</v>
+      </c>
+      <c r="F109" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>780</v>
+      </c>
+      <c r="G109" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>1400</v>
+      </c>
+      <c r="H109" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>1350</v>
+      </c>
+      <c r="I109" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>1120</v>
+      </c>
+      <c r="J109" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>1020</v>
+      </c>
+      <c r="K109" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>1260</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.35">
@@ -4693,40 +4790,40 @@
         <v>86</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D110" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>990</v>
       </c>
       <c r="E110" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1080</v>
       </c>
       <c r="F110" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1170</v>
       </c>
       <c r="G110" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>700</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1120</v>
       </c>
       <c r="H110" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
+        <v>750</v>
+      </c>
+      <c r="I110" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>1600</v>
+      </c>
+      <c r="J110" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>850</v>
+      </c>
+      <c r="K110" s="1">
+        <f t="shared" ca="1" si="19"/>
         <v>900</v>
-      </c>
-      <c r="I110" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1440</v>
-      </c>
-      <c r="J110" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1020</v>
-      </c>
-      <c r="K110" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1440</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.35">
@@ -4734,40 +4831,40 @@
         <v>87</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D111" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1100</v>
       </c>
       <c r="E111" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1200</v>
       </c>
       <c r="F111" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>910</v>
       </c>
       <c r="G111" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1120</v>
       </c>
       <c r="H111" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>600</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1500</v>
       </c>
       <c r="I111" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1120</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1600</v>
       </c>
       <c r="J111" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>170</v>
       </c>
       <c r="K111" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1800</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>360</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.35">
@@ -4775,40 +4872,40 @@
         <v>88</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>1000</v>
       </c>
       <c r="D112" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>880</v>
       </c>
       <c r="E112" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>960</v>
       </c>
       <c r="F112" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>910</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1300</v>
       </c>
       <c r="G112" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1120</v>
       </c>
       <c r="H112" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1350</v>
       </c>
       <c r="I112" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>800</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1600</v>
       </c>
       <c r="J112" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1360</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1190</v>
       </c>
       <c r="K112" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1620</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.35">
@@ -4816,40 +4913,40 @@
         <v>89</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>800</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>1000</v>
       </c>
       <c r="D113" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1100</v>
       </c>
       <c r="E113" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1080</v>
       </c>
       <c r="F113" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>780</v>
       </c>
       <c r="G113" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>980</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1260</v>
       </c>
       <c r="H113" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1050</v>
       </c>
       <c r="I113" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>640</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>480</v>
       </c>
       <c r="J113" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1530</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1190</v>
       </c>
       <c r="K113" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1080</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.35">
@@ -4857,40 +4954,40 @@
         <v>90</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D114" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1100</v>
       </c>
       <c r="E114" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1200</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1040</v>
       </c>
       <c r="G114" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>840</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>980</v>
       </c>
       <c r="H114" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1050</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>900</v>
       </c>
       <c r="I114" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1120</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1600</v>
       </c>
       <c r="J114" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1020</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1360</v>
       </c>
       <c r="K114" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>540</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.35">
@@ -4898,40 +4995,40 @@
         <v>91</v>
       </c>
       <c r="C115" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D115" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>990</v>
       </c>
       <c r="E115" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>960</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1040</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1300</v>
       </c>
       <c r="G115" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1400</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1260</v>
       </c>
       <c r="H115" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1050</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>750</v>
       </c>
       <c r="I115" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1600</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>800</v>
       </c>
       <c r="J115" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>680</v>
       </c>
       <c r="K115" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1080</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1620</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.35">
@@ -4939,40 +5036,40 @@
         <v>92</v>
       </c>
       <c r="C116" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D116" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1100</v>
       </c>
       <c r="E116" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1200</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>910</v>
       </c>
       <c r="G116" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>980</v>
       </c>
       <c r="H116" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1050</v>
       </c>
       <c r="I116" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>960</v>
       </c>
       <c r="J116" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1190</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>850</v>
       </c>
       <c r="K116" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1080</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.35">
@@ -4980,40 +5077,40 @@
         <v>93</v>
       </c>
       <c r="C117" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D117" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1100</v>
       </c>
       <c r="E117" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1080</v>
       </c>
       <c r="F117" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1300</v>
       </c>
       <c r="G117" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1400</v>
       </c>
       <c r="H117" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>750</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1050</v>
       </c>
       <c r="I117" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>800</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1600</v>
       </c>
       <c r="J117" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1020</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>850</v>
       </c>
       <c r="K117" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>360</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1080</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.35">
@@ -5021,40 +5118,40 @@
         <v>94</v>
       </c>
       <c r="C118" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D118" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>990</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>880</v>
       </c>
       <c r="E118" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1080</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1170</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1040</v>
       </c>
       <c r="G118" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1400</v>
       </c>
       <c r="H118" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>900</v>
       </c>
       <c r="I118" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1600</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>640</v>
       </c>
       <c r="J118" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1190</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>680</v>
       </c>
       <c r="K118" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>360</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>720</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.35">
@@ -5062,39 +5159,39 @@
         <v>95</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D119" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>550</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>880</v>
       </c>
       <c r="E119" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>960</v>
       </c>
       <c r="F119" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>780</v>
       </c>
       <c r="G119" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>560</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1120</v>
       </c>
       <c r="H119" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1350</v>
       </c>
       <c r="I119" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>640</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1440</v>
       </c>
       <c r="J119" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1020</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>850</v>
       </c>
       <c r="K119" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1260</v>
       </c>
     </row>
@@ -5103,39 +5200,39 @@
         <v>96</v>
       </c>
       <c r="C120" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D120" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>770</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1100</v>
       </c>
       <c r="E120" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>840</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1200</v>
       </c>
       <c r="F120" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1170</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>650</v>
       </c>
       <c r="G120" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1400</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1120</v>
       </c>
       <c r="H120" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1050</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1200</v>
       </c>
       <c r="I120" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>960</v>
       </c>
       <c r="J120" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1700</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1530</v>
       </c>
       <c r="K120" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1260</v>
       </c>
     </row>
@@ -5144,39 +5241,39 @@
         <v>97</v>
       </c>
       <c r="C121" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D121" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>880</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1100</v>
       </c>
       <c r="E121" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>840</v>
       </c>
       <c r="F121" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1170</v>
       </c>
       <c r="G121" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>980</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>840</v>
       </c>
       <c r="H121" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>900</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1050</v>
       </c>
       <c r="I121" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>960</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1280</v>
       </c>
       <c r="J121" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1020</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>680</v>
       </c>
       <c r="K121" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>900</v>
       </c>
     </row>
@@ -5185,39 +5282,39 @@
         <v>98</v>
       </c>
       <c r="C122" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D122" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>660</v>
       </c>
       <c r="E122" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1200</v>
       </c>
       <c r="F122" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1300</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1170</v>
       </c>
       <c r="G122" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1400</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1260</v>
       </c>
       <c r="H122" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1350</v>
       </c>
       <c r="I122" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1280</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1120</v>
       </c>
       <c r="J122" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1360</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>850</v>
       </c>
       <c r="K122" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>900</v>
       </c>
     </row>
@@ -5226,40 +5323,40 @@
         <v>99</v>
       </c>
       <c r="C123" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D123" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1100</v>
       </c>
       <c r="E123" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>840</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1200</v>
       </c>
       <c r="F123" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1300</v>
       </c>
       <c r="G123" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>980</v>
       </c>
       <c r="H123" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1500</v>
       </c>
       <c r="I123" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1120</v>
       </c>
       <c r="J123" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1020</v>
       </c>
       <c r="K123" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1080</v>
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.35">
@@ -5267,39 +5364,39 @@
         <v>100</v>
       </c>
       <c r="C124" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1000</v>
       </c>
       <c r="D124" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1100</v>
       </c>
       <c r="E124" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>840</v>
       </c>
       <c r="F124" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1300</v>
       </c>
       <c r="G124" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1400</v>
       </c>
       <c r="H124" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1500</v>
       </c>
       <c r="I124" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1440</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>640</v>
       </c>
       <c r="J124" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1700</v>
       </c>
       <c r="K124" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>720</v>
       </c>
     </row>
